--- a/biology/Botanique/Brahea_calcarea/Brahea_calcarea.xlsx
+++ b/biology/Botanique/Brahea_calcarea/Brahea_calcarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brahea calcarea est une espèce de plantes à fleurs de la famille des palmiers (Arecaceae). Il est originaire du Guatemala et du Mexique et il est considéré en danger d'extinction en raison de la perte de son habitat.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un palmier que l'on trouve dans les forêts de chênes, dans les zones sèches des collines calcaires à une altitude comprise entre 900 et 1 500 mètres au Guatemala et au Mexique répartis dans les états de Colima, Guerrero, Jalisco, Michoacan, Nayarit, Oaxaca et Sinaloa.
 Tout comme les autres Braheas, cette espèce préfère les situations très ensoleillées. Il résiste très bien à la sécheresse, espèce calciphile; il tolère tous types de sols ; mais il craint les eaux stagnantes et n’aime pas l’excès d’humidité ambiante . Les sujets âgés ont des feuilles couvertes de pruine d’un bleu du plus bel effet. Il a une croissance très supérieure à celle du Brahea armata
@@ -543,15 +557,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Brahea calcarea a été décrite par Frederick Michael Liebmann et publiée dans Historia Naturalis Palmarum 3 : 319. 1850[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brahea calcarea a été décrite par Frederick Michael Liebmann et publiée dans Historia Naturalis Palmarum 3 : 319. 1850.
 Étymologie
-Brahea : nom générique donné en l'honneur de l'astronome danois Tycho Brahe (1546-1601)[2].
-calcarea : épithète latine qui signifie « calcaire » en raison de sa propension à pousser dans des environnements très calcaire[3].
+Brahea : nom générique donné en l'honneur de l'astronome danois Tycho Brahe (1546-1601).
+calcarea : épithète latine qui signifie « calcaire » en raison de sa propension à pousser dans des environnements très calcaire.
 Synonymie
 Brahea nitida        André
-Brahea prominens L.H.Bailey [4]</t>
+Brahea prominens L.H.Bailey </t>
         </is>
       </c>
     </row>
